--- a/PresentacionPrevia.xlsx
+++ b/PresentacionPrevia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
